--- a/ig/nr/terminology-management-nos/ValueSet-EyeColorVS.xlsx
+++ b/ig/nr/terminology-management-nos/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T08:08:22+00:00</t>
+    <t>2023-03-22T08:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/terminology-management-nos/ValueSet-EyeColorVS.xlsx
+++ b/ig/nr/terminology-management-nos/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T08:33:42+00:00</t>
+    <t>2023-03-30T09:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
